--- a/biology/Médecine/ZS-9/ZS-9.xlsx
+++ b/biology/Médecine/ZS-9/ZS-9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ZS-9, ou cyclosilicate de zirconium sodique, vendu aux USA sous le nom « Lokelma », est une molécule autorisée depuis 2018 aux USA et en Europe pour le traitement de l'hyperkaliémie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ZS-9, ou cyclosilicate de zirconium sodique, vendu aux USA sous le nom « Lokelma », est une molécule autorisée depuis 2018 aux USA et en Europe pour le traitement de l'hyperkaliémie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il agit comme un piège à ions potassium dans un réseau de micropores qui n'est pas absorbé par le tube digestif[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il agit comme un piège à ions potassium dans un réseau de micropores qui n'est pas absorbé par le tube digestif.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été testé dans l'hyperkaliémie[3],[4], en particulier en cas d'insuffisance rénale chronique[5] ou d'insuffisance cardiaque[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été testé dans l'hyperkaliémie en particulier en cas d'insuffisance rénale chronique ou d'insuffisance cardiaque.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'effet secondaire principal est une diarrhée[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'effet secondaire principal est une diarrhée.
 </t>
         </is>
       </c>
